--- a/data_insert.xlsx
+++ b/data_insert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView minimized="1" xWindow="2540" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="绩效导入表" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="278">
   <si>
     <t>事业部</t>
   </si>
@@ -856,6 +856,10 @@
   <si>
     <t>朱悦</t>
   </si>
+  <si>
+    <t>能力素质得分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1308,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T310"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1340,7 +1344,7 @@
         <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>65</v>
